--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himanshu.verma\Desktop\PRIVATE\Git_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6278F7-CCD0-4F88-B52C-923C8A519019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD8B07B-25E1-4963-BBB3-14BAF3077575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>aa jao bhai sarane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SN </t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>roll no.</t>
+  </si>
+  <si>
+    <t>marks</t>
   </si>
 </sst>
 </file>
@@ -348,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C6:J6"/>
+  <dimension ref="C6:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:J6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -368,6 +380,20 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C6:J6"/>
